--- a/prueba_dataanalyst.xlsx
+++ b/prueba_dataanalyst.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\william.uyasan\Documents\personal\prueba_dataanalyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{0A0D612A-CF91-424C-917E-6851713946BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE5292B-DE7A-4236-BB63-DE6D52D86B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3"/>
+    <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parametros" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="31" r:id="rId5"/>
-    <pivotCache cacheId="42" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -279,7 +279,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -340,19 +340,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -362,12 +358,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -375,14 +365,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2267,6 +2266,174 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -5516,7 +5683,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="William Uyasan Mayorga" refreshedDate="45001.422589004629" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="15">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="William Uyasan Mayorga" refreshedDate="45001.422589004629" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="15" xr:uid="{00000000-000A-0000-FFFF-FFFF1F000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E16" sheet="stock"/>
   </cacheSource>
@@ -5556,7 +5723,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="William Uyasan Mayorga" refreshedDate="45001.483462962962" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="15">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="William Uyasan Mayorga" refreshedDate="45001.483462962962" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="15" xr:uid="{00000000-000A-0000-FFFF-FFFF2A000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F16" sheet="ventas"/>
   </cacheSource>
@@ -5834,7 +6001,127 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica27" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="TablaDinámica26" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="H1:L8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de unidades_vendidas" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="TablaDinámica27" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="N1:R8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -5953,128 +6240,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica26" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="H1:L8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de unidades_vendidas" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica22" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="TablaDinámica22" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="H2:L9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -6479,7 +6646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
@@ -7099,7 +7266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView topLeftCell="K5" workbookViewId="0">
@@ -7225,34 +7392,34 @@
       <c r="F3">
         <v>1500</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <v>1500</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>900</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <v>600</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3">
         <v>3000</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3">
         <v>0.5</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3">
         <v>0.3</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3">
         <v>0.2</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3">
         <v>1</v>
       </c>
     </row>
@@ -7275,34 +7442,34 @@
       <c r="F4">
         <v>600</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
         <v>1600</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>4800</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4">
         <v>1600</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4">
         <v>8000</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4">
         <v>0.2</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4">
         <v>0.6</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4">
         <v>0.2</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4">
         <v>1</v>
       </c>
     </row>
@@ -7325,34 +7492,34 @@
       <c r="F5">
         <v>4800</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>800</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>1000</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
         <v>200</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5">
         <v>2000</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5">
         <v>0.4</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5">
         <v>0.5</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5">
         <v>0.1</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5">
         <v>1</v>
       </c>
     </row>
@@ -7375,34 +7542,34 @@
       <c r="F6">
         <v>1600</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
         <v>400</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
         <v>200</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6">
         <v>1400</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6">
         <v>2000</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6">
         <v>0.2</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6">
         <v>0.1</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6">
         <v>0.7</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6">
         <v>1</v>
       </c>
     </row>
@@ -7425,34 +7592,34 @@
       <c r="F7">
         <v>1600</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
         <v>400</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7">
         <v>300</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7">
         <v>300</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7">
         <v>1000</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7">
         <v>0.4</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7">
         <v>0.3</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7">
         <v>0.3</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7">
         <v>1</v>
       </c>
     </row>
@@ -7475,34 +7642,34 @@
       <c r="F8">
         <v>1000</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
         <v>4700</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8">
         <v>7200</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8">
         <v>4100</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8">
         <v>16000</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8">
         <v>1.7000000000000002</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8">
         <v>1.8</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8">
         <v>1.5</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8">
         <v>5</v>
       </c>
     </row>
@@ -7673,7 +7840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView topLeftCell="E11" workbookViewId="0">
@@ -7777,19 +7944,19 @@
       <c r="E4">
         <v>1500</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
         <v>1000</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>2500</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4">
         <v>1500</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4">
         <v>5000</v>
       </c>
     </row>
@@ -7809,19 +7976,19 @@
       <c r="E5">
         <v>1200</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>8400</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>1200</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
         <v>2400</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5">
         <v>12000</v>
       </c>
     </row>
@@ -7841,19 +8008,19 @@
       <c r="E6">
         <v>8400</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
         <v>700</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
         <v>700</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6">
         <v>5600</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6">
         <v>7000</v>
       </c>
     </row>
@@ -7873,19 +8040,19 @@
       <c r="E7">
         <v>2400</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
         <v>1200</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7">
         <v>4200</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7">
         <v>600</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7">
         <v>6000</v>
       </c>
     </row>
@@ -7905,19 +8072,19 @@
       <c r="E8">
         <v>700</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
         <v>1600</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8">
         <v>1200</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8">
         <v>1200</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8">
         <v>4000</v>
       </c>
     </row>
@@ -7937,19 +8104,19 @@
       <c r="E9">
         <v>700</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9">
         <v>12900</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9">
         <v>9800</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9">
         <v>11300</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9">
         <v>34000</v>
       </c>
     </row>
@@ -8337,7 +8504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -8352,49 +8519,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>0.5</v>
       </c>
     </row>
@@ -8404,32 +8571,32 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>1</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>2</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8449,139 +8616,139 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
+      <c r="A21" s="5">
         <v>1</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>1</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
+      <c r="A22" s="5">
         <v>2</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>2</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="7">
+    <row r="23" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
         <v>3</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>3</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>4</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>4</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="7">
+      <c r="A25" s="5">
         <v>5</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <v>5</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="D26" s="7">
+      <c r="D26" s="5">
         <v>6</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <v>7</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8590,93 +8757,93 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="7">
+    <row r="40" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
         <v>1</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="7">
+    <row r="41" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
         <v>2</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="7">
+      <c r="A42" s="5">
         <v>3</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>1</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>-2</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>-2</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <v>-2</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <v>-1</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <v>3</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <v>2</v>
       </c>
     </row>

--- a/prueba_dataanalyst.xlsx
+++ b/prueba_dataanalyst.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\william.uyasan\Documents\personal\prueba_dataanalyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE5292B-DE7A-4236-BB63-DE6D52D86B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F90441-E530-4082-A0AE-EFB00715A4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parametros" sheetId="1" r:id="rId1"/>
@@ -2434,6 +2434,174 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -6001,6 +6169,126 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="TablaDinámica27" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="N1:R8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de pp_unidades_vendidas" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="9" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="TablaDinámica26" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="H1:L8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
@@ -6103,126 +6391,6 @@
           </reference>
           <reference field="1" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="TablaDinámica27" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="N1:R8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de pp_unidades_vendidas" fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="9" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -8507,8 +8675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C6"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
